--- a/WorkBot/experimental/data/orders/Webstaurant/Webstaurant_Bakery_2025-08-30.xlsx
+++ b/WorkBot/experimental/data/orders/Webstaurant/Webstaurant_Bakery_2025-08-30.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,6 +876,141 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>245S12FU12RCBL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cake Drum - 12" (silver)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>711RGRMCRK50</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Graham Cracker - Crumb</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>116.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>116.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>113PNWHRW5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nuts - Pine</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>204.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>613.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>24510102CB</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Box Cake - 10x10x2.5</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>66.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>66.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>24510105CB</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Box Cake - 10x10x5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
